--- a/main/data/prueba_predicc_dia_dia.xlsx
+++ b/main/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66B8DE87-663D-4854-8CD1-F9A67750822F}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79FDA875-8F79-43D5-97BD-B1C733220EFD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6315" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,9 +500,6 @@
     <t>a restar</t>
   </si>
   <si>
-    <t xml:space="preserve">Israel 🇮🇱 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ukraine 🇺🇦 </t>
   </si>
   <si>
@@ -609,6 +606,9 @@
   </si>
   <si>
     <t xml:space="preserve">San Marino 🇸🇲 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel 🇮🇱 </t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45390.751250231478" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45390.769757870374" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -3235,122 +3235,122 @@
   <dimension ref="A1:AL839"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:38">
       <c r="B1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" t="s">
         <v>151</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>152</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>153</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>154</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>155</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>156</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>157</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>158</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>159</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>160</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>161</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>162</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>163</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>164</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>165</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>166</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>167</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>168</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>169</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>170</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>171</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>172</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>173</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>175</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>176</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>177</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>178</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>179</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>180</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>181</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>182</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>183</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>184</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>185</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>186</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:38">

--- a/main/data/prueba_predicc_dia_dia.xlsx
+++ b/main/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79FDA875-8F79-43D5-97BD-B1C733220EFD}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B732269-AEFF-4311-B3CE-87D0DF2EBA45}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6315" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45390.769757870374" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45390.772701967595" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -3235,7 +3235,7 @@
   <dimension ref="A1:AL839"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/main/data/prueba_predicc_dia_dia.xlsx
+++ b/main/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B732269-AEFF-4311-B3CE-87D0DF2EBA45}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22083187-970E-4121-89F7-2E9BF0577979}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6315" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="151">
   <si>
     <t>Code</t>
   </si>
@@ -498,117 +498,6 @@
   </si>
   <si>
     <t>a restar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine 🇺🇦 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands 🇳🇱 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece 🇬🇷 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy 🇮🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland 🇨🇭 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia 🇦🇲 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania 🇱🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium 🇧🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia 🇭🇷 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">France 🇫🇷 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom 🇬🇧 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria 🇦🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland 🇮🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain 🇪🇸 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway 🇳🇴 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden 🇸🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia 🇬🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland 🇫🇮 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark 🇩🇰 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland 🇵🇱 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan 🇦🇿 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia 🇸🇮 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus 🇨🇾 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia 🇷🇸 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia 🇪🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany 🇩🇪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia 🇱🇻 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia 🇦🇺 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova 🇲🇩 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal 🇵🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia 🇨🇿 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania 🇦🇱 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxemburgo 🇱🇺 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta 🇲🇹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland 🇮🇸 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Marino 🇸🇲 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel 🇮🇱 </t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2038,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45390.772701967595" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45390.774462499998" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -3232,125 +3121,125 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL839"/>
+  <dimension ref="A1:AL796"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="B1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P1" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>165</v>
-      </c>
-      <c r="R1" t="s">
-        <v>166</v>
-      </c>
-      <c r="S1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T1" t="s">
-        <v>168</v>
-      </c>
-      <c r="U1" t="s">
-        <v>169</v>
-      </c>
-      <c r="V1" t="s">
-        <v>170</v>
-      </c>
-      <c r="W1" t="s">
-        <v>171</v>
-      </c>
-      <c r="X1" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>186</v>
+      <c r="B1" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG1" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ1" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL1" s="48" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -35228,1726 +35117,6 @@
       <c r="AJ796" s="5"/>
       <c r="AK796" s="5"/>
       <c r="AL796" s="5"/>
-    </row>
-    <row r="797" spans="1:38">
-      <c r="A797" s="2"/>
-      <c r="B797" s="1"/>
-      <c r="C797" s="1"/>
-      <c r="D797" s="1"/>
-      <c r="E797" s="1"/>
-      <c r="F797" s="1"/>
-      <c r="G797" s="1"/>
-      <c r="H797" s="1"/>
-      <c r="I797" s="1"/>
-      <c r="J797" s="1"/>
-      <c r="K797" s="1"/>
-      <c r="L797" s="1"/>
-      <c r="M797" s="1"/>
-      <c r="N797" s="1"/>
-      <c r="O797" s="1"/>
-      <c r="P797" s="1"/>
-      <c r="Q797" s="1"/>
-      <c r="R797" s="1"/>
-      <c r="S797" s="1"/>
-      <c r="T797" s="1"/>
-      <c r="U797" s="1"/>
-      <c r="V797" s="1"/>
-      <c r="W797" s="1"/>
-      <c r="X797" s="1"/>
-      <c r="Y797" s="1"/>
-      <c r="Z797" s="1"/>
-      <c r="AA797" s="1"/>
-      <c r="AB797" s="1"/>
-      <c r="AC797" s="1"/>
-      <c r="AD797" s="5"/>
-      <c r="AE797" s="5"/>
-      <c r="AF797" s="5"/>
-      <c r="AG797" s="1"/>
-      <c r="AH797" s="1"/>
-      <c r="AI797" s="5"/>
-      <c r="AJ797" s="5"/>
-      <c r="AK797" s="5"/>
-      <c r="AL797" s="5"/>
-    </row>
-    <row r="798" spans="1:38">
-      <c r="A798" s="2"/>
-      <c r="B798" s="1"/>
-      <c r="C798" s="1"/>
-      <c r="D798" s="1"/>
-      <c r="E798" s="1"/>
-      <c r="F798" s="1"/>
-      <c r="G798" s="1"/>
-      <c r="H798" s="1"/>
-      <c r="I798" s="1"/>
-      <c r="J798" s="1"/>
-      <c r="K798" s="1"/>
-      <c r="L798" s="1"/>
-      <c r="M798" s="1"/>
-      <c r="N798" s="1"/>
-      <c r="O798" s="1"/>
-      <c r="P798" s="1"/>
-      <c r="Q798" s="1"/>
-      <c r="R798" s="1"/>
-      <c r="S798" s="1"/>
-      <c r="T798" s="1"/>
-      <c r="U798" s="1"/>
-      <c r="V798" s="1"/>
-      <c r="W798" s="1"/>
-      <c r="X798" s="1"/>
-      <c r="Y798" s="1"/>
-      <c r="Z798" s="1"/>
-      <c r="AA798" s="1"/>
-      <c r="AB798" s="1"/>
-      <c r="AC798" s="1"/>
-      <c r="AD798" s="5"/>
-      <c r="AE798" s="5"/>
-      <c r="AF798" s="5"/>
-      <c r="AG798" s="1"/>
-      <c r="AH798" s="1"/>
-      <c r="AI798" s="5"/>
-      <c r="AJ798" s="5"/>
-      <c r="AK798" s="5"/>
-      <c r="AL798" s="5"/>
-    </row>
-    <row r="799" spans="1:38">
-      <c r="A799" s="2"/>
-      <c r="B799" s="1"/>
-      <c r="C799" s="1"/>
-      <c r="D799" s="1"/>
-      <c r="E799" s="1"/>
-      <c r="F799" s="1"/>
-      <c r="G799" s="1"/>
-      <c r="H799" s="1"/>
-      <c r="I799" s="1"/>
-      <c r="J799" s="1"/>
-      <c r="K799" s="1"/>
-      <c r="L799" s="1"/>
-      <c r="M799" s="1"/>
-      <c r="N799" s="1"/>
-      <c r="O799" s="1"/>
-      <c r="P799" s="1"/>
-      <c r="Q799" s="1"/>
-      <c r="R799" s="1"/>
-      <c r="S799" s="1"/>
-      <c r="T799" s="1"/>
-      <c r="U799" s="1"/>
-      <c r="V799" s="1"/>
-      <c r="W799" s="1"/>
-      <c r="X799" s="1"/>
-      <c r="Y799" s="1"/>
-      <c r="Z799" s="1"/>
-      <c r="AA799" s="1"/>
-      <c r="AB799" s="1"/>
-      <c r="AC799" s="1"/>
-      <c r="AD799" s="5"/>
-      <c r="AE799" s="5"/>
-      <c r="AF799" s="5"/>
-      <c r="AG799" s="1"/>
-      <c r="AH799" s="1"/>
-      <c r="AI799" s="5"/>
-      <c r="AJ799" s="5"/>
-      <c r="AK799" s="5"/>
-      <c r="AL799" s="5"/>
-    </row>
-    <row r="800" spans="1:38">
-      <c r="A800" s="2"/>
-      <c r="B800" s="1"/>
-      <c r="C800" s="1"/>
-      <c r="D800" s="1"/>
-      <c r="E800" s="1"/>
-      <c r="F800" s="1"/>
-      <c r="G800" s="1"/>
-      <c r="H800" s="1"/>
-      <c r="I800" s="1"/>
-      <c r="J800" s="1"/>
-      <c r="K800" s="1"/>
-      <c r="L800" s="1"/>
-      <c r="M800" s="1"/>
-      <c r="N800" s="1"/>
-      <c r="O800" s="1"/>
-      <c r="P800" s="1"/>
-      <c r="Q800" s="1"/>
-      <c r="R800" s="1"/>
-      <c r="S800" s="1"/>
-      <c r="T800" s="1"/>
-      <c r="U800" s="1"/>
-      <c r="V800" s="1"/>
-      <c r="W800" s="1"/>
-      <c r="X800" s="1"/>
-      <c r="Y800" s="1"/>
-      <c r="Z800" s="1"/>
-      <c r="AA800" s="1"/>
-      <c r="AB800" s="1"/>
-      <c r="AC800" s="1"/>
-      <c r="AD800" s="5"/>
-      <c r="AE800" s="5"/>
-      <c r="AF800" s="5"/>
-      <c r="AG800" s="1"/>
-      <c r="AH800" s="1"/>
-      <c r="AI800" s="5"/>
-      <c r="AJ800" s="5"/>
-      <c r="AK800" s="5"/>
-      <c r="AL800" s="5"/>
-    </row>
-    <row r="801" spans="1:38">
-      <c r="A801" s="2"/>
-      <c r="B801" s="1"/>
-      <c r="C801" s="1"/>
-      <c r="D801" s="1"/>
-      <c r="E801" s="1"/>
-      <c r="F801" s="1"/>
-      <c r="G801" s="1"/>
-      <c r="H801" s="1"/>
-      <c r="I801" s="1"/>
-      <c r="J801" s="1"/>
-      <c r="K801" s="1"/>
-      <c r="L801" s="1"/>
-      <c r="M801" s="1"/>
-      <c r="N801" s="1"/>
-      <c r="O801" s="1"/>
-      <c r="P801" s="1"/>
-      <c r="Q801" s="1"/>
-      <c r="R801" s="1"/>
-      <c r="S801" s="1"/>
-      <c r="T801" s="1"/>
-      <c r="U801" s="1"/>
-      <c r="V801" s="1"/>
-      <c r="W801" s="1"/>
-      <c r="X801" s="1"/>
-      <c r="Y801" s="1"/>
-      <c r="Z801" s="1"/>
-      <c r="AA801" s="1"/>
-      <c r="AB801" s="1"/>
-      <c r="AC801" s="1"/>
-      <c r="AD801" s="5"/>
-      <c r="AE801" s="5"/>
-      <c r="AF801" s="5"/>
-      <c r="AG801" s="1"/>
-      <c r="AH801" s="1"/>
-      <c r="AI801" s="5"/>
-      <c r="AJ801" s="5"/>
-      <c r="AK801" s="5"/>
-      <c r="AL801" s="5"/>
-    </row>
-    <row r="802" spans="1:38">
-      <c r="A802" s="2"/>
-      <c r="B802" s="1"/>
-      <c r="C802" s="1"/>
-      <c r="D802" s="1"/>
-      <c r="E802" s="1"/>
-      <c r="F802" s="1"/>
-      <c r="G802" s="1"/>
-      <c r="H802" s="1"/>
-      <c r="I802" s="1"/>
-      <c r="J802" s="1"/>
-      <c r="K802" s="1"/>
-      <c r="L802" s="1"/>
-      <c r="M802" s="1"/>
-      <c r="N802" s="1"/>
-      <c r="O802" s="1"/>
-      <c r="P802" s="1"/>
-      <c r="Q802" s="1"/>
-      <c r="R802" s="1"/>
-      <c r="S802" s="1"/>
-      <c r="T802" s="1"/>
-      <c r="U802" s="1"/>
-      <c r="V802" s="1"/>
-      <c r="W802" s="1"/>
-      <c r="X802" s="1"/>
-      <c r="Y802" s="1"/>
-      <c r="Z802" s="1"/>
-      <c r="AA802" s="1"/>
-      <c r="AB802" s="1"/>
-      <c r="AC802" s="1"/>
-      <c r="AD802" s="5"/>
-      <c r="AE802" s="5"/>
-      <c r="AF802" s="5"/>
-      <c r="AG802" s="1"/>
-      <c r="AH802" s="1"/>
-      <c r="AI802" s="5"/>
-      <c r="AJ802" s="5"/>
-      <c r="AK802" s="5"/>
-      <c r="AL802" s="5"/>
-    </row>
-    <row r="803" spans="1:38">
-      <c r="A803" s="2"/>
-      <c r="B803" s="1"/>
-      <c r="C803" s="1"/>
-      <c r="D803" s="1"/>
-      <c r="E803" s="1"/>
-      <c r="F803" s="1"/>
-      <c r="G803" s="1"/>
-      <c r="H803" s="1"/>
-      <c r="I803" s="1"/>
-      <c r="J803" s="1"/>
-      <c r="K803" s="1"/>
-      <c r="L803" s="1"/>
-      <c r="M803" s="1"/>
-      <c r="N803" s="1"/>
-      <c r="O803" s="1"/>
-      <c r="P803" s="1"/>
-      <c r="Q803" s="1"/>
-      <c r="R803" s="1"/>
-      <c r="S803" s="1"/>
-      <c r="T803" s="1"/>
-      <c r="U803" s="1"/>
-      <c r="V803" s="1"/>
-      <c r="W803" s="1"/>
-      <c r="X803" s="1"/>
-      <c r="Y803" s="1"/>
-      <c r="Z803" s="1"/>
-      <c r="AA803" s="1"/>
-      <c r="AB803" s="1"/>
-      <c r="AC803" s="1"/>
-      <c r="AD803" s="5"/>
-      <c r="AE803" s="5"/>
-      <c r="AF803" s="5"/>
-      <c r="AG803" s="1"/>
-      <c r="AH803" s="1"/>
-      <c r="AI803" s="5"/>
-      <c r="AJ803" s="5"/>
-      <c r="AK803" s="5"/>
-      <c r="AL803" s="5"/>
-    </row>
-    <row r="804" spans="1:38">
-      <c r="A804" s="2"/>
-      <c r="B804" s="1"/>
-      <c r="C804" s="1"/>
-      <c r="D804" s="1"/>
-      <c r="E804" s="1"/>
-      <c r="F804" s="1"/>
-      <c r="G804" s="1"/>
-      <c r="H804" s="1"/>
-      <c r="I804" s="1"/>
-      <c r="J804" s="1"/>
-      <c r="K804" s="1"/>
-      <c r="L804" s="1"/>
-      <c r="M804" s="1"/>
-      <c r="N804" s="1"/>
-      <c r="O804" s="1"/>
-      <c r="P804" s="1"/>
-      <c r="Q804" s="1"/>
-      <c r="R804" s="1"/>
-      <c r="S804" s="1"/>
-      <c r="T804" s="1"/>
-      <c r="U804" s="1"/>
-      <c r="V804" s="1"/>
-      <c r="W804" s="1"/>
-      <c r="X804" s="1"/>
-      <c r="Y804" s="1"/>
-      <c r="Z804" s="1"/>
-      <c r="AA804" s="1"/>
-      <c r="AB804" s="1"/>
-      <c r="AC804" s="1"/>
-      <c r="AD804" s="5"/>
-      <c r="AE804" s="5"/>
-      <c r="AF804" s="5"/>
-      <c r="AG804" s="1"/>
-      <c r="AH804" s="1"/>
-      <c r="AI804" s="5"/>
-      <c r="AJ804" s="5"/>
-      <c r="AK804" s="5"/>
-      <c r="AL804" s="5"/>
-    </row>
-    <row r="805" spans="1:38">
-      <c r="A805" s="2"/>
-      <c r="B805" s="1"/>
-      <c r="C805" s="1"/>
-      <c r="D805" s="1"/>
-      <c r="E805" s="1"/>
-      <c r="F805" s="1"/>
-      <c r="G805" s="1"/>
-      <c r="H805" s="1"/>
-      <c r="I805" s="1"/>
-      <c r="J805" s="1"/>
-      <c r="K805" s="1"/>
-      <c r="L805" s="1"/>
-      <c r="M805" s="1"/>
-      <c r="N805" s="1"/>
-      <c r="O805" s="1"/>
-      <c r="P805" s="1"/>
-      <c r="Q805" s="1"/>
-      <c r="R805" s="1"/>
-      <c r="S805" s="1"/>
-      <c r="T805" s="1"/>
-      <c r="U805" s="1"/>
-      <c r="V805" s="1"/>
-      <c r="W805" s="1"/>
-      <c r="X805" s="1"/>
-      <c r="Y805" s="1"/>
-      <c r="Z805" s="1"/>
-      <c r="AA805" s="1"/>
-      <c r="AB805" s="1"/>
-      <c r="AC805" s="1"/>
-      <c r="AD805" s="5"/>
-      <c r="AE805" s="5"/>
-      <c r="AF805" s="5"/>
-      <c r="AG805" s="1"/>
-      <c r="AH805" s="1"/>
-      <c r="AI805" s="5"/>
-      <c r="AJ805" s="5"/>
-      <c r="AK805" s="5"/>
-      <c r="AL805" s="5"/>
-    </row>
-    <row r="806" spans="1:38">
-      <c r="A806" s="2"/>
-      <c r="B806" s="1"/>
-      <c r="C806" s="1"/>
-      <c r="D806" s="1"/>
-      <c r="E806" s="1"/>
-      <c r="F806" s="1"/>
-      <c r="G806" s="1"/>
-      <c r="H806" s="1"/>
-      <c r="I806" s="1"/>
-      <c r="J806" s="1"/>
-      <c r="K806" s="1"/>
-      <c r="L806" s="1"/>
-      <c r="M806" s="1"/>
-      <c r="N806" s="1"/>
-      <c r="O806" s="1"/>
-      <c r="P806" s="1"/>
-      <c r="Q806" s="1"/>
-      <c r="R806" s="1"/>
-      <c r="S806" s="1"/>
-      <c r="T806" s="1"/>
-      <c r="U806" s="1"/>
-      <c r="V806" s="1"/>
-      <c r="W806" s="1"/>
-      <c r="X806" s="1"/>
-      <c r="Y806" s="1"/>
-      <c r="Z806" s="1"/>
-      <c r="AA806" s="1"/>
-      <c r="AB806" s="1"/>
-      <c r="AC806" s="1"/>
-      <c r="AD806" s="5"/>
-      <c r="AE806" s="5"/>
-      <c r="AF806" s="5"/>
-      <c r="AG806" s="1"/>
-      <c r="AH806" s="1"/>
-      <c r="AI806" s="5"/>
-      <c r="AJ806" s="5"/>
-      <c r="AK806" s="5"/>
-      <c r="AL806" s="5"/>
-    </row>
-    <row r="807" spans="1:38">
-      <c r="A807" s="2"/>
-      <c r="B807" s="1"/>
-      <c r="C807" s="1"/>
-      <c r="D807" s="1"/>
-      <c r="E807" s="1"/>
-      <c r="F807" s="1"/>
-      <c r="G807" s="1"/>
-      <c r="H807" s="1"/>
-      <c r="I807" s="1"/>
-      <c r="J807" s="1"/>
-      <c r="K807" s="1"/>
-      <c r="L807" s="1"/>
-      <c r="M807" s="1"/>
-      <c r="N807" s="1"/>
-      <c r="O807" s="1"/>
-      <c r="P807" s="1"/>
-      <c r="Q807" s="1"/>
-      <c r="R807" s="1"/>
-      <c r="S807" s="1"/>
-      <c r="T807" s="1"/>
-      <c r="U807" s="1"/>
-      <c r="V807" s="1"/>
-      <c r="W807" s="1"/>
-      <c r="X807" s="1"/>
-      <c r="Y807" s="1"/>
-      <c r="Z807" s="1"/>
-      <c r="AA807" s="1"/>
-      <c r="AB807" s="1"/>
-      <c r="AC807" s="1"/>
-      <c r="AD807" s="5"/>
-      <c r="AE807" s="5"/>
-      <c r="AF807" s="5"/>
-      <c r="AG807" s="1"/>
-      <c r="AH807" s="1"/>
-      <c r="AI807" s="5"/>
-      <c r="AJ807" s="5"/>
-      <c r="AK807" s="5"/>
-      <c r="AL807" s="5"/>
-    </row>
-    <row r="808" spans="1:38">
-      <c r="A808" s="2"/>
-      <c r="B808" s="1"/>
-      <c r="C808" s="1"/>
-      <c r="D808" s="1"/>
-      <c r="E808" s="1"/>
-      <c r="F808" s="1"/>
-      <c r="G808" s="1"/>
-      <c r="H808" s="1"/>
-      <c r="I808" s="1"/>
-      <c r="J808" s="1"/>
-      <c r="K808" s="1"/>
-      <c r="L808" s="1"/>
-      <c r="M808" s="1"/>
-      <c r="N808" s="1"/>
-      <c r="O808" s="1"/>
-      <c r="P808" s="1"/>
-      <c r="Q808" s="1"/>
-      <c r="R808" s="1"/>
-      <c r="S808" s="1"/>
-      <c r="T808" s="1"/>
-      <c r="U808" s="1"/>
-      <c r="V808" s="1"/>
-      <c r="W808" s="1"/>
-      <c r="X808" s="1"/>
-      <c r="Y808" s="1"/>
-      <c r="Z808" s="1"/>
-      <c r="AA808" s="1"/>
-      <c r="AB808" s="1"/>
-      <c r="AC808" s="1"/>
-      <c r="AD808" s="5"/>
-      <c r="AE808" s="5"/>
-      <c r="AF808" s="5"/>
-      <c r="AG808" s="1"/>
-      <c r="AH808" s="1"/>
-      <c r="AI808" s="5"/>
-      <c r="AJ808" s="5"/>
-      <c r="AK808" s="5"/>
-      <c r="AL808" s="5"/>
-    </row>
-    <row r="809" spans="1:38">
-      <c r="A809" s="2"/>
-      <c r="B809" s="1"/>
-      <c r="C809" s="1"/>
-      <c r="D809" s="1"/>
-      <c r="E809" s="1"/>
-      <c r="F809" s="1"/>
-      <c r="G809" s="1"/>
-      <c r="H809" s="1"/>
-      <c r="I809" s="1"/>
-      <c r="J809" s="1"/>
-      <c r="K809" s="1"/>
-      <c r="L809" s="1"/>
-      <c r="M809" s="1"/>
-      <c r="N809" s="1"/>
-      <c r="O809" s="1"/>
-      <c r="P809" s="1"/>
-      <c r="Q809" s="1"/>
-      <c r="R809" s="1"/>
-      <c r="S809" s="1"/>
-      <c r="T809" s="1"/>
-      <c r="U809" s="1"/>
-      <c r="V809" s="1"/>
-      <c r="W809" s="1"/>
-      <c r="X809" s="1"/>
-      <c r="Y809" s="1"/>
-      <c r="Z809" s="1"/>
-      <c r="AA809" s="1"/>
-      <c r="AB809" s="1"/>
-      <c r="AC809" s="1"/>
-      <c r="AD809" s="5"/>
-      <c r="AE809" s="5"/>
-      <c r="AF809" s="5"/>
-      <c r="AG809" s="1"/>
-      <c r="AH809" s="1"/>
-      <c r="AI809" s="5"/>
-      <c r="AJ809" s="5"/>
-      <c r="AK809" s="5"/>
-      <c r="AL809" s="5"/>
-    </row>
-    <row r="810" spans="1:38">
-      <c r="A810" s="2"/>
-      <c r="B810" s="1"/>
-      <c r="C810" s="1"/>
-      <c r="D810" s="1"/>
-      <c r="E810" s="1"/>
-      <c r="F810" s="1"/>
-      <c r="G810" s="1"/>
-      <c r="H810" s="1"/>
-      <c r="I810" s="1"/>
-      <c r="J810" s="1"/>
-      <c r="K810" s="1"/>
-      <c r="L810" s="1"/>
-      <c r="M810" s="1"/>
-      <c r="N810" s="1"/>
-      <c r="O810" s="1"/>
-      <c r="P810" s="1"/>
-      <c r="Q810" s="1"/>
-      <c r="R810" s="1"/>
-      <c r="S810" s="1"/>
-      <c r="T810" s="1"/>
-      <c r="U810" s="1"/>
-      <c r="V810" s="1"/>
-      <c r="W810" s="1"/>
-      <c r="X810" s="1"/>
-      <c r="Y810" s="1"/>
-      <c r="Z810" s="1"/>
-      <c r="AA810" s="1"/>
-      <c r="AB810" s="1"/>
-      <c r="AC810" s="1"/>
-      <c r="AD810" s="5"/>
-      <c r="AE810" s="5"/>
-      <c r="AF810" s="5"/>
-      <c r="AG810" s="1"/>
-      <c r="AH810" s="1"/>
-      <c r="AI810" s="5"/>
-      <c r="AJ810" s="5"/>
-      <c r="AK810" s="5"/>
-      <c r="AL810" s="5"/>
-    </row>
-    <row r="811" spans="1:38">
-      <c r="A811" s="2"/>
-      <c r="B811" s="1"/>
-      <c r="C811" s="1"/>
-      <c r="D811" s="1"/>
-      <c r="E811" s="1"/>
-      <c r="F811" s="1"/>
-      <c r="G811" s="1"/>
-      <c r="H811" s="1"/>
-      <c r="I811" s="1"/>
-      <c r="J811" s="1"/>
-      <c r="K811" s="1"/>
-      <c r="L811" s="1"/>
-      <c r="M811" s="1"/>
-      <c r="N811" s="1"/>
-      <c r="O811" s="1"/>
-      <c r="P811" s="1"/>
-      <c r="Q811" s="1"/>
-      <c r="R811" s="1"/>
-      <c r="S811" s="1"/>
-      <c r="T811" s="1"/>
-      <c r="U811" s="1"/>
-      <c r="V811" s="1"/>
-      <c r="W811" s="1"/>
-      <c r="X811" s="1"/>
-      <c r="Y811" s="1"/>
-      <c r="Z811" s="1"/>
-      <c r="AA811" s="1"/>
-      <c r="AB811" s="1"/>
-      <c r="AC811" s="1"/>
-      <c r="AD811" s="5"/>
-      <c r="AE811" s="5"/>
-      <c r="AF811" s="5"/>
-      <c r="AG811" s="1"/>
-      <c r="AH811" s="1"/>
-      <c r="AI811" s="5"/>
-      <c r="AJ811" s="5"/>
-      <c r="AK811" s="5"/>
-      <c r="AL811" s="5"/>
-    </row>
-    <row r="812" spans="1:38">
-      <c r="A812" s="2"/>
-      <c r="B812" s="1"/>
-      <c r="C812" s="1"/>
-      <c r="D812" s="1"/>
-      <c r="E812" s="1"/>
-      <c r="F812" s="1"/>
-      <c r="G812" s="1"/>
-      <c r="H812" s="1"/>
-      <c r="I812" s="1"/>
-      <c r="J812" s="1"/>
-      <c r="K812" s="1"/>
-      <c r="L812" s="1"/>
-      <c r="M812" s="1"/>
-      <c r="N812" s="1"/>
-      <c r="O812" s="1"/>
-      <c r="P812" s="1"/>
-      <c r="Q812" s="1"/>
-      <c r="R812" s="1"/>
-      <c r="S812" s="1"/>
-      <c r="T812" s="1"/>
-      <c r="U812" s="1"/>
-      <c r="V812" s="1"/>
-      <c r="W812" s="1"/>
-      <c r="X812" s="1"/>
-      <c r="Y812" s="1"/>
-      <c r="Z812" s="1"/>
-      <c r="AA812" s="1"/>
-      <c r="AB812" s="1"/>
-      <c r="AC812" s="1"/>
-      <c r="AD812" s="5"/>
-      <c r="AE812" s="5"/>
-      <c r="AF812" s="5"/>
-      <c r="AG812" s="1"/>
-      <c r="AH812" s="1"/>
-      <c r="AI812" s="5"/>
-      <c r="AJ812" s="5"/>
-      <c r="AK812" s="5"/>
-      <c r="AL812" s="5"/>
-    </row>
-    <row r="813" spans="1:38">
-      <c r="A813" s="2"/>
-      <c r="B813" s="1"/>
-      <c r="C813" s="1"/>
-      <c r="D813" s="1"/>
-      <c r="E813" s="1"/>
-      <c r="F813" s="1"/>
-      <c r="G813" s="1"/>
-      <c r="H813" s="1"/>
-      <c r="I813" s="1"/>
-      <c r="J813" s="1"/>
-      <c r="K813" s="1"/>
-      <c r="L813" s="1"/>
-      <c r="M813" s="1"/>
-      <c r="N813" s="1"/>
-      <c r="O813" s="1"/>
-      <c r="P813" s="1"/>
-      <c r="Q813" s="1"/>
-      <c r="R813" s="1"/>
-      <c r="S813" s="1"/>
-      <c r="T813" s="1"/>
-      <c r="U813" s="1"/>
-      <c r="V813" s="1"/>
-      <c r="W813" s="1"/>
-      <c r="X813" s="1"/>
-      <c r="Y813" s="1"/>
-      <c r="Z813" s="1"/>
-      <c r="AA813" s="1"/>
-      <c r="AB813" s="1"/>
-      <c r="AC813" s="1"/>
-      <c r="AD813" s="5"/>
-      <c r="AE813" s="5"/>
-      <c r="AF813" s="5"/>
-      <c r="AG813" s="1"/>
-      <c r="AH813" s="1"/>
-      <c r="AI813" s="5"/>
-      <c r="AJ813" s="5"/>
-      <c r="AK813" s="5"/>
-      <c r="AL813" s="5"/>
-    </row>
-    <row r="814" spans="1:38">
-      <c r="A814" s="2"/>
-      <c r="B814" s="1"/>
-      <c r="C814" s="1"/>
-      <c r="D814" s="1"/>
-      <c r="E814" s="1"/>
-      <c r="F814" s="1"/>
-      <c r="G814" s="1"/>
-      <c r="H814" s="1"/>
-      <c r="I814" s="1"/>
-      <c r="J814" s="1"/>
-      <c r="K814" s="1"/>
-      <c r="L814" s="1"/>
-      <c r="M814" s="1"/>
-      <c r="N814" s="1"/>
-      <c r="O814" s="1"/>
-      <c r="P814" s="1"/>
-      <c r="Q814" s="1"/>
-      <c r="R814" s="1"/>
-      <c r="S814" s="1"/>
-      <c r="T814" s="1"/>
-      <c r="U814" s="1"/>
-      <c r="V814" s="1"/>
-      <c r="W814" s="1"/>
-      <c r="X814" s="1"/>
-      <c r="Y814" s="1"/>
-      <c r="Z814" s="1"/>
-      <c r="AA814" s="1"/>
-      <c r="AB814" s="1"/>
-      <c r="AC814" s="1"/>
-      <c r="AD814" s="5"/>
-      <c r="AE814" s="5"/>
-      <c r="AF814" s="5"/>
-      <c r="AG814" s="1"/>
-      <c r="AH814" s="1"/>
-      <c r="AI814" s="5"/>
-      <c r="AJ814" s="5"/>
-      <c r="AK814" s="5"/>
-      <c r="AL814" s="5"/>
-    </row>
-    <row r="815" spans="1:38">
-      <c r="A815" s="2"/>
-      <c r="B815" s="1"/>
-      <c r="C815" s="1"/>
-      <c r="D815" s="1"/>
-      <c r="E815" s="1"/>
-      <c r="F815" s="1"/>
-      <c r="G815" s="1"/>
-      <c r="H815" s="1"/>
-      <c r="I815" s="1"/>
-      <c r="J815" s="1"/>
-      <c r="K815" s="1"/>
-      <c r="L815" s="1"/>
-      <c r="M815" s="1"/>
-      <c r="N815" s="1"/>
-      <c r="O815" s="1"/>
-      <c r="P815" s="1"/>
-      <c r="Q815" s="1"/>
-      <c r="R815" s="1"/>
-      <c r="S815" s="1"/>
-      <c r="T815" s="1"/>
-      <c r="U815" s="1"/>
-      <c r="V815" s="1"/>
-      <c r="W815" s="1"/>
-      <c r="X815" s="1"/>
-      <c r="Y815" s="1"/>
-      <c r="Z815" s="1"/>
-      <c r="AA815" s="1"/>
-      <c r="AB815" s="1"/>
-      <c r="AC815" s="1"/>
-      <c r="AD815" s="5"/>
-      <c r="AE815" s="5"/>
-      <c r="AF815" s="5"/>
-      <c r="AG815" s="1"/>
-      <c r="AH815" s="1"/>
-      <c r="AI815" s="5"/>
-      <c r="AJ815" s="5"/>
-      <c r="AK815" s="5"/>
-      <c r="AL815" s="5"/>
-    </row>
-    <row r="816" spans="1:38">
-      <c r="A816" s="2"/>
-      <c r="B816" s="1"/>
-      <c r="C816" s="1"/>
-      <c r="D816" s="1"/>
-      <c r="E816" s="1"/>
-      <c r="F816" s="1"/>
-      <c r="G816" s="1"/>
-      <c r="H816" s="1"/>
-      <c r="I816" s="1"/>
-      <c r="J816" s="1"/>
-      <c r="K816" s="1"/>
-      <c r="L816" s="1"/>
-      <c r="M816" s="1"/>
-      <c r="N816" s="1"/>
-      <c r="O816" s="1"/>
-      <c r="P816" s="1"/>
-      <c r="Q816" s="1"/>
-      <c r="R816" s="1"/>
-      <c r="S816" s="1"/>
-      <c r="T816" s="1"/>
-      <c r="U816" s="1"/>
-      <c r="V816" s="1"/>
-      <c r="W816" s="1"/>
-      <c r="X816" s="1"/>
-      <c r="Y816" s="1"/>
-      <c r="Z816" s="1"/>
-      <c r="AA816" s="1"/>
-      <c r="AB816" s="1"/>
-      <c r="AC816" s="1"/>
-      <c r="AD816" s="5"/>
-      <c r="AE816" s="5"/>
-      <c r="AF816" s="5"/>
-      <c r="AG816" s="1"/>
-      <c r="AH816" s="1"/>
-      <c r="AI816" s="5"/>
-      <c r="AJ816" s="5"/>
-      <c r="AK816" s="5"/>
-      <c r="AL816" s="5"/>
-    </row>
-    <row r="817" spans="1:38">
-      <c r="A817" s="2"/>
-      <c r="B817" s="1"/>
-      <c r="C817" s="1"/>
-      <c r="D817" s="1"/>
-      <c r="E817" s="1"/>
-      <c r="F817" s="1"/>
-      <c r="G817" s="1"/>
-      <c r="H817" s="1"/>
-      <c r="I817" s="1"/>
-      <c r="J817" s="1"/>
-      <c r="K817" s="1"/>
-      <c r="L817" s="1"/>
-      <c r="M817" s="1"/>
-      <c r="N817" s="1"/>
-      <c r="O817" s="1"/>
-      <c r="P817" s="1"/>
-      <c r="Q817" s="1"/>
-      <c r="R817" s="1"/>
-      <c r="S817" s="1"/>
-      <c r="T817" s="1"/>
-      <c r="U817" s="1"/>
-      <c r="V817" s="1"/>
-      <c r="W817" s="1"/>
-      <c r="X817" s="1"/>
-      <c r="Y817" s="1"/>
-      <c r="Z817" s="1"/>
-      <c r="AA817" s="1"/>
-      <c r="AB817" s="1"/>
-      <c r="AC817" s="1"/>
-      <c r="AD817" s="5"/>
-      <c r="AE817" s="5"/>
-      <c r="AF817" s="5"/>
-      <c r="AG817" s="1"/>
-      <c r="AH817" s="1"/>
-      <c r="AI817" s="5"/>
-      <c r="AJ817" s="5"/>
-      <c r="AK817" s="5"/>
-      <c r="AL817" s="5"/>
-    </row>
-    <row r="818" spans="1:38">
-      <c r="A818" s="2"/>
-      <c r="B818" s="1"/>
-      <c r="C818" s="1"/>
-      <c r="D818" s="1"/>
-      <c r="E818" s="1"/>
-      <c r="F818" s="1"/>
-      <c r="G818" s="1"/>
-      <c r="H818" s="1"/>
-      <c r="I818" s="1"/>
-      <c r="J818" s="1"/>
-      <c r="K818" s="1"/>
-      <c r="L818" s="1"/>
-      <c r="M818" s="1"/>
-      <c r="N818" s="1"/>
-      <c r="O818" s="1"/>
-      <c r="P818" s="1"/>
-      <c r="Q818" s="1"/>
-      <c r="R818" s="1"/>
-      <c r="S818" s="1"/>
-      <c r="T818" s="1"/>
-      <c r="U818" s="1"/>
-      <c r="V818" s="1"/>
-      <c r="W818" s="1"/>
-      <c r="X818" s="1"/>
-      <c r="Y818" s="1"/>
-      <c r="Z818" s="1"/>
-      <c r="AA818" s="1"/>
-      <c r="AB818" s="1"/>
-      <c r="AC818" s="1"/>
-      <c r="AD818" s="5"/>
-      <c r="AE818" s="5"/>
-      <c r="AF818" s="5"/>
-      <c r="AG818" s="1"/>
-      <c r="AH818" s="1"/>
-      <c r="AI818" s="5"/>
-      <c r="AJ818" s="5"/>
-      <c r="AK818" s="5"/>
-      <c r="AL818" s="5"/>
-    </row>
-    <row r="819" spans="1:38">
-      <c r="A819" s="2"/>
-      <c r="B819" s="1"/>
-      <c r="C819" s="1"/>
-      <c r="D819" s="1"/>
-      <c r="E819" s="1"/>
-      <c r="F819" s="1"/>
-      <c r="G819" s="1"/>
-      <c r="H819" s="1"/>
-      <c r="I819" s="1"/>
-      <c r="J819" s="1"/>
-      <c r="K819" s="1"/>
-      <c r="L819" s="1"/>
-      <c r="M819" s="1"/>
-      <c r="N819" s="1"/>
-      <c r="O819" s="1"/>
-      <c r="P819" s="1"/>
-      <c r="Q819" s="1"/>
-      <c r="R819" s="1"/>
-      <c r="S819" s="1"/>
-      <c r="T819" s="1"/>
-      <c r="U819" s="1"/>
-      <c r="V819" s="1"/>
-      <c r="W819" s="1"/>
-      <c r="X819" s="1"/>
-      <c r="Y819" s="1"/>
-      <c r="Z819" s="1"/>
-      <c r="AA819" s="1"/>
-      <c r="AB819" s="1"/>
-      <c r="AC819" s="1"/>
-      <c r="AD819" s="5"/>
-      <c r="AE819" s="5"/>
-      <c r="AF819" s="5"/>
-      <c r="AG819" s="1"/>
-      <c r="AH819" s="1"/>
-      <c r="AI819" s="5"/>
-      <c r="AJ819" s="5"/>
-      <c r="AK819" s="5"/>
-      <c r="AL819" s="5"/>
-    </row>
-    <row r="820" spans="1:38">
-      <c r="A820" s="2"/>
-      <c r="B820" s="1"/>
-      <c r="C820" s="1"/>
-      <c r="D820" s="1"/>
-      <c r="E820" s="1"/>
-      <c r="F820" s="1"/>
-      <c r="G820" s="1"/>
-      <c r="H820" s="1"/>
-      <c r="I820" s="1"/>
-      <c r="J820" s="1"/>
-      <c r="K820" s="1"/>
-      <c r="L820" s="1"/>
-      <c r="M820" s="1"/>
-      <c r="N820" s="1"/>
-      <c r="O820" s="1"/>
-      <c r="P820" s="1"/>
-      <c r="Q820" s="1"/>
-      <c r="R820" s="1"/>
-      <c r="S820" s="1"/>
-      <c r="T820" s="1"/>
-      <c r="U820" s="1"/>
-      <c r="V820" s="1"/>
-      <c r="W820" s="1"/>
-      <c r="X820" s="1"/>
-      <c r="Y820" s="1"/>
-      <c r="Z820" s="1"/>
-      <c r="AA820" s="1"/>
-      <c r="AB820" s="1"/>
-      <c r="AC820" s="1"/>
-      <c r="AD820" s="5"/>
-      <c r="AE820" s="5"/>
-      <c r="AF820" s="5"/>
-      <c r="AG820" s="1"/>
-      <c r="AH820" s="1"/>
-      <c r="AI820" s="5"/>
-      <c r="AJ820" s="5"/>
-      <c r="AK820" s="5"/>
-      <c r="AL820" s="5"/>
-    </row>
-    <row r="821" spans="1:38">
-      <c r="A821" s="2"/>
-      <c r="B821" s="1"/>
-      <c r="C821" s="1"/>
-      <c r="D821" s="1"/>
-      <c r="E821" s="1"/>
-      <c r="F821" s="1"/>
-      <c r="G821" s="1"/>
-      <c r="H821" s="1"/>
-      <c r="I821" s="1"/>
-      <c r="J821" s="1"/>
-      <c r="K821" s="1"/>
-      <c r="L821" s="1"/>
-      <c r="M821" s="1"/>
-      <c r="N821" s="1"/>
-      <c r="O821" s="1"/>
-      <c r="P821" s="1"/>
-      <c r="Q821" s="1"/>
-      <c r="R821" s="1"/>
-      <c r="S821" s="1"/>
-      <c r="T821" s="1"/>
-      <c r="U821" s="1"/>
-      <c r="V821" s="1"/>
-      <c r="W821" s="1"/>
-      <c r="X821" s="1"/>
-      <c r="Y821" s="1"/>
-      <c r="Z821" s="1"/>
-      <c r="AA821" s="1"/>
-      <c r="AB821" s="1"/>
-      <c r="AC821" s="1"/>
-      <c r="AD821" s="5"/>
-      <c r="AE821" s="5"/>
-      <c r="AF821" s="5"/>
-      <c r="AG821" s="1"/>
-      <c r="AH821" s="1"/>
-      <c r="AI821" s="5"/>
-      <c r="AJ821" s="5"/>
-      <c r="AK821" s="5"/>
-      <c r="AL821" s="5"/>
-    </row>
-    <row r="822" spans="1:38">
-      <c r="A822" s="2"/>
-      <c r="B822" s="1"/>
-      <c r="C822" s="1"/>
-      <c r="D822" s="1"/>
-      <c r="E822" s="1"/>
-      <c r="F822" s="1"/>
-      <c r="G822" s="1"/>
-      <c r="H822" s="1"/>
-      <c r="I822" s="1"/>
-      <c r="J822" s="1"/>
-      <c r="K822" s="1"/>
-      <c r="L822" s="1"/>
-      <c r="M822" s="1"/>
-      <c r="N822" s="1"/>
-      <c r="O822" s="1"/>
-      <c r="P822" s="1"/>
-      <c r="Q822" s="1"/>
-      <c r="R822" s="1"/>
-      <c r="S822" s="1"/>
-      <c r="T822" s="1"/>
-      <c r="U822" s="1"/>
-      <c r="V822" s="1"/>
-      <c r="W822" s="1"/>
-      <c r="X822" s="1"/>
-      <c r="Y822" s="1"/>
-      <c r="Z822" s="1"/>
-      <c r="AA822" s="1"/>
-      <c r="AB822" s="1"/>
-      <c r="AC822" s="1"/>
-      <c r="AD822" s="5"/>
-      <c r="AE822" s="5"/>
-      <c r="AF822" s="5"/>
-      <c r="AG822" s="1"/>
-      <c r="AH822" s="1"/>
-      <c r="AI822" s="5"/>
-      <c r="AJ822" s="5"/>
-      <c r="AK822" s="5"/>
-      <c r="AL822" s="5"/>
-    </row>
-    <row r="823" spans="1:38">
-      <c r="A823" s="2"/>
-      <c r="B823" s="1"/>
-      <c r="C823" s="1"/>
-      <c r="D823" s="1"/>
-      <c r="E823" s="1"/>
-      <c r="F823" s="1"/>
-      <c r="G823" s="1"/>
-      <c r="H823" s="1"/>
-      <c r="I823" s="1"/>
-      <c r="J823" s="1"/>
-      <c r="K823" s="1"/>
-      <c r="L823" s="1"/>
-      <c r="M823" s="1"/>
-      <c r="N823" s="1"/>
-      <c r="O823" s="1"/>
-      <c r="P823" s="1"/>
-      <c r="Q823" s="1"/>
-      <c r="R823" s="1"/>
-      <c r="S823" s="1"/>
-      <c r="T823" s="1"/>
-      <c r="U823" s="1"/>
-      <c r="V823" s="1"/>
-      <c r="W823" s="1"/>
-      <c r="X823" s="1"/>
-      <c r="Y823" s="1"/>
-      <c r="Z823" s="1"/>
-      <c r="AA823" s="1"/>
-      <c r="AB823" s="1"/>
-      <c r="AC823" s="1"/>
-      <c r="AD823" s="5"/>
-      <c r="AE823" s="5"/>
-      <c r="AF823" s="5"/>
-      <c r="AG823" s="1"/>
-      <c r="AH823" s="1"/>
-      <c r="AI823" s="5"/>
-      <c r="AJ823" s="5"/>
-      <c r="AK823" s="5"/>
-      <c r="AL823" s="5"/>
-    </row>
-    <row r="824" spans="1:38">
-      <c r="A824" s="2"/>
-      <c r="B824" s="1"/>
-      <c r="C824" s="1"/>
-      <c r="D824" s="1"/>
-      <c r="E824" s="1"/>
-      <c r="F824" s="1"/>
-      <c r="G824" s="1"/>
-      <c r="H824" s="1"/>
-      <c r="I824" s="1"/>
-      <c r="J824" s="1"/>
-      <c r="K824" s="1"/>
-      <c r="L824" s="1"/>
-      <c r="M824" s="1"/>
-      <c r="N824" s="1"/>
-      <c r="O824" s="1"/>
-      <c r="P824" s="1"/>
-      <c r="Q824" s="1"/>
-      <c r="R824" s="1"/>
-      <c r="S824" s="1"/>
-      <c r="T824" s="1"/>
-      <c r="U824" s="1"/>
-      <c r="V824" s="1"/>
-      <c r="W824" s="1"/>
-      <c r="X824" s="1"/>
-      <c r="Y824" s="1"/>
-      <c r="Z824" s="1"/>
-      <c r="AA824" s="1"/>
-      <c r="AB824" s="1"/>
-      <c r="AC824" s="1"/>
-      <c r="AD824" s="5"/>
-      <c r="AE824" s="5"/>
-      <c r="AF824" s="5"/>
-      <c r="AG824" s="1"/>
-      <c r="AH824" s="1"/>
-      <c r="AI824" s="5"/>
-      <c r="AJ824" s="5"/>
-      <c r="AK824" s="5"/>
-      <c r="AL824" s="5"/>
-    </row>
-    <row r="825" spans="1:38">
-      <c r="A825" s="2"/>
-      <c r="B825" s="1"/>
-      <c r="C825" s="1"/>
-      <c r="D825" s="1"/>
-      <c r="E825" s="1"/>
-      <c r="F825" s="1"/>
-      <c r="G825" s="1"/>
-      <c r="H825" s="1"/>
-      <c r="I825" s="1"/>
-      <c r="J825" s="1"/>
-      <c r="K825" s="1"/>
-      <c r="L825" s="1"/>
-      <c r="M825" s="1"/>
-      <c r="N825" s="1"/>
-      <c r="O825" s="1"/>
-      <c r="P825" s="1"/>
-      <c r="Q825" s="1"/>
-      <c r="R825" s="1"/>
-      <c r="S825" s="1"/>
-      <c r="T825" s="1"/>
-      <c r="U825" s="1"/>
-      <c r="V825" s="1"/>
-      <c r="W825" s="1"/>
-      <c r="X825" s="1"/>
-      <c r="Y825" s="1"/>
-      <c r="Z825" s="1"/>
-      <c r="AA825" s="1"/>
-      <c r="AB825" s="1"/>
-      <c r="AC825" s="1"/>
-      <c r="AD825" s="5"/>
-      <c r="AE825" s="5"/>
-      <c r="AF825" s="5"/>
-      <c r="AG825" s="1"/>
-      <c r="AH825" s="1"/>
-      <c r="AI825" s="5"/>
-      <c r="AJ825" s="5"/>
-      <c r="AK825" s="5"/>
-      <c r="AL825" s="5"/>
-    </row>
-    <row r="826" spans="1:38">
-      <c r="A826" s="2"/>
-      <c r="B826" s="1"/>
-      <c r="C826" s="1"/>
-      <c r="D826" s="1"/>
-      <c r="E826" s="1"/>
-      <c r="F826" s="1"/>
-      <c r="G826" s="1"/>
-      <c r="H826" s="1"/>
-      <c r="I826" s="1"/>
-      <c r="J826" s="1"/>
-      <c r="K826" s="1"/>
-      <c r="L826" s="1"/>
-      <c r="M826" s="1"/>
-      <c r="N826" s="1"/>
-      <c r="O826" s="1"/>
-      <c r="P826" s="1"/>
-      <c r="Q826" s="1"/>
-      <c r="R826" s="1"/>
-      <c r="S826" s="1"/>
-      <c r="T826" s="1"/>
-      <c r="U826" s="1"/>
-      <c r="V826" s="1"/>
-      <c r="W826" s="1"/>
-      <c r="X826" s="1"/>
-      <c r="Y826" s="1"/>
-      <c r="Z826" s="1"/>
-      <c r="AA826" s="1"/>
-      <c r="AB826" s="1"/>
-      <c r="AC826" s="1"/>
-      <c r="AD826" s="5"/>
-      <c r="AE826" s="5"/>
-      <c r="AF826" s="5"/>
-      <c r="AG826" s="1"/>
-      <c r="AH826" s="1"/>
-      <c r="AI826" s="5"/>
-      <c r="AJ826" s="5"/>
-      <c r="AK826" s="5"/>
-      <c r="AL826" s="5"/>
-    </row>
-    <row r="827" spans="1:38">
-      <c r="A827" s="2"/>
-      <c r="B827" s="1"/>
-      <c r="C827" s="1"/>
-      <c r="D827" s="1"/>
-      <c r="E827" s="1"/>
-      <c r="F827" s="1"/>
-      <c r="G827" s="1"/>
-      <c r="H827" s="1"/>
-      <c r="I827" s="1"/>
-      <c r="J827" s="1"/>
-      <c r="K827" s="1"/>
-      <c r="L827" s="1"/>
-      <c r="M827" s="1"/>
-      <c r="N827" s="1"/>
-      <c r="O827" s="1"/>
-      <c r="P827" s="1"/>
-      <c r="Q827" s="1"/>
-      <c r="R827" s="1"/>
-      <c r="S827" s="1"/>
-      <c r="T827" s="1"/>
-      <c r="U827" s="1"/>
-      <c r="V827" s="1"/>
-      <c r="W827" s="1"/>
-      <c r="X827" s="1"/>
-      <c r="Y827" s="1"/>
-      <c r="Z827" s="1"/>
-      <c r="AA827" s="1"/>
-      <c r="AB827" s="1"/>
-      <c r="AC827" s="1"/>
-      <c r="AD827" s="5"/>
-      <c r="AE827" s="5"/>
-      <c r="AF827" s="5"/>
-      <c r="AG827" s="1"/>
-      <c r="AH827" s="1"/>
-      <c r="AI827" s="5"/>
-      <c r="AJ827" s="5"/>
-      <c r="AK827" s="5"/>
-      <c r="AL827" s="5"/>
-    </row>
-    <row r="828" spans="1:38">
-      <c r="A828" s="2"/>
-      <c r="B828" s="1"/>
-      <c r="C828" s="1"/>
-      <c r="D828" s="1"/>
-      <c r="E828" s="1"/>
-      <c r="F828" s="1"/>
-      <c r="G828" s="1"/>
-      <c r="H828" s="1"/>
-      <c r="I828" s="1"/>
-      <c r="J828" s="1"/>
-      <c r="K828" s="1"/>
-      <c r="L828" s="1"/>
-      <c r="M828" s="1"/>
-      <c r="N828" s="1"/>
-      <c r="O828" s="1"/>
-      <c r="P828" s="1"/>
-      <c r="Q828" s="1"/>
-      <c r="R828" s="1"/>
-      <c r="S828" s="1"/>
-      <c r="T828" s="1"/>
-      <c r="U828" s="1"/>
-      <c r="V828" s="1"/>
-      <c r="W828" s="1"/>
-      <c r="X828" s="1"/>
-      <c r="Y828" s="1"/>
-      <c r="Z828" s="1"/>
-      <c r="AA828" s="1"/>
-      <c r="AB828" s="1"/>
-      <c r="AC828" s="1"/>
-      <c r="AD828" s="5"/>
-      <c r="AE828" s="5"/>
-      <c r="AF828" s="5"/>
-      <c r="AG828" s="1"/>
-      <c r="AH828" s="1"/>
-      <c r="AI828" s="5"/>
-      <c r="AJ828" s="5"/>
-      <c r="AK828" s="5"/>
-      <c r="AL828" s="5"/>
-    </row>
-    <row r="829" spans="1:38">
-      <c r="A829" s="2"/>
-      <c r="B829" s="1"/>
-      <c r="C829" s="1"/>
-      <c r="D829" s="1"/>
-      <c r="E829" s="1"/>
-      <c r="F829" s="1"/>
-      <c r="G829" s="1"/>
-      <c r="H829" s="1"/>
-      <c r="I829" s="1"/>
-      <c r="J829" s="1"/>
-      <c r="K829" s="1"/>
-      <c r="L829" s="1"/>
-      <c r="M829" s="1"/>
-      <c r="N829" s="1"/>
-      <c r="O829" s="1"/>
-      <c r="P829" s="1"/>
-      <c r="Q829" s="1"/>
-      <c r="R829" s="1"/>
-      <c r="S829" s="1"/>
-      <c r="T829" s="1"/>
-      <c r="U829" s="1"/>
-      <c r="V829" s="1"/>
-      <c r="W829" s="1"/>
-      <c r="X829" s="1"/>
-      <c r="Y829" s="1"/>
-      <c r="Z829" s="1"/>
-      <c r="AA829" s="1"/>
-      <c r="AB829" s="1"/>
-      <c r="AC829" s="1"/>
-      <c r="AD829" s="5"/>
-      <c r="AE829" s="5"/>
-      <c r="AF829" s="5"/>
-      <c r="AG829" s="1"/>
-      <c r="AH829" s="1"/>
-      <c r="AI829" s="5"/>
-      <c r="AJ829" s="5"/>
-      <c r="AK829" s="5"/>
-      <c r="AL829" s="5"/>
-    </row>
-    <row r="830" spans="1:38">
-      <c r="A830" s="2"/>
-      <c r="B830" s="1"/>
-      <c r="C830" s="1"/>
-      <c r="D830" s="1"/>
-      <c r="E830" s="1"/>
-      <c r="F830" s="1"/>
-      <c r="G830" s="1"/>
-      <c r="H830" s="1"/>
-      <c r="I830" s="1"/>
-      <c r="J830" s="1"/>
-      <c r="K830" s="1"/>
-      <c r="L830" s="1"/>
-      <c r="M830" s="1"/>
-      <c r="N830" s="1"/>
-      <c r="O830" s="1"/>
-      <c r="P830" s="1"/>
-      <c r="Q830" s="1"/>
-      <c r="R830" s="1"/>
-      <c r="S830" s="1"/>
-      <c r="T830" s="1"/>
-      <c r="U830" s="1"/>
-      <c r="V830" s="1"/>
-      <c r="W830" s="1"/>
-      <c r="X830" s="1"/>
-      <c r="Y830" s="1"/>
-      <c r="Z830" s="1"/>
-      <c r="AA830" s="1"/>
-      <c r="AB830" s="1"/>
-      <c r="AC830" s="1"/>
-      <c r="AD830" s="5"/>
-      <c r="AE830" s="5"/>
-      <c r="AF830" s="5"/>
-      <c r="AG830" s="1"/>
-      <c r="AH830" s="1"/>
-      <c r="AI830" s="5"/>
-      <c r="AJ830" s="5"/>
-      <c r="AK830" s="5"/>
-      <c r="AL830" s="5"/>
-    </row>
-    <row r="831" spans="1:38">
-      <c r="A831" s="2"/>
-      <c r="B831" s="1"/>
-      <c r="C831" s="1"/>
-      <c r="D831" s="1"/>
-      <c r="E831" s="1"/>
-      <c r="F831" s="1"/>
-      <c r="G831" s="1"/>
-      <c r="H831" s="1"/>
-      <c r="I831" s="1"/>
-      <c r="J831" s="1"/>
-      <c r="K831" s="1"/>
-      <c r="L831" s="1"/>
-      <c r="M831" s="1"/>
-      <c r="N831" s="1"/>
-      <c r="O831" s="1"/>
-      <c r="P831" s="1"/>
-      <c r="Q831" s="1"/>
-      <c r="R831" s="1"/>
-      <c r="S831" s="1"/>
-      <c r="T831" s="1"/>
-      <c r="U831" s="1"/>
-      <c r="V831" s="1"/>
-      <c r="W831" s="1"/>
-      <c r="X831" s="1"/>
-      <c r="Y831" s="1"/>
-      <c r="Z831" s="1"/>
-      <c r="AA831" s="1"/>
-      <c r="AB831" s="1"/>
-      <c r="AC831" s="1"/>
-      <c r="AD831" s="5"/>
-      <c r="AE831" s="5"/>
-      <c r="AF831" s="5"/>
-      <c r="AG831" s="1"/>
-      <c r="AH831" s="1"/>
-      <c r="AI831" s="5"/>
-      <c r="AJ831" s="5"/>
-      <c r="AK831" s="5"/>
-      <c r="AL831" s="5"/>
-    </row>
-    <row r="832" spans="1:38">
-      <c r="A832" s="2"/>
-      <c r="B832" s="1"/>
-      <c r="C832" s="1"/>
-      <c r="D832" s="1"/>
-      <c r="E832" s="1"/>
-      <c r="F832" s="1"/>
-      <c r="G832" s="1"/>
-      <c r="H832" s="1"/>
-      <c r="I832" s="1"/>
-      <c r="J832" s="1"/>
-      <c r="K832" s="1"/>
-      <c r="L832" s="1"/>
-      <c r="M832" s="1"/>
-      <c r="N832" s="1"/>
-      <c r="O832" s="1"/>
-      <c r="P832" s="1"/>
-      <c r="Q832" s="1"/>
-      <c r="R832" s="1"/>
-      <c r="S832" s="1"/>
-      <c r="T832" s="1"/>
-      <c r="U832" s="1"/>
-      <c r="V832" s="1"/>
-      <c r="W832" s="1"/>
-      <c r="X832" s="1"/>
-      <c r="Y832" s="1"/>
-      <c r="Z832" s="1"/>
-      <c r="AA832" s="1"/>
-      <c r="AB832" s="1"/>
-      <c r="AC832" s="1"/>
-      <c r="AD832" s="5"/>
-      <c r="AE832" s="5"/>
-      <c r="AF832" s="5"/>
-      <c r="AG832" s="1"/>
-      <c r="AH832" s="1"/>
-      <c r="AI832" s="5"/>
-      <c r="AJ832" s="5"/>
-      <c r="AK832" s="5"/>
-      <c r="AL832" s="5"/>
-    </row>
-    <row r="833" spans="1:38">
-      <c r="A833" s="2"/>
-      <c r="B833" s="1"/>
-      <c r="C833" s="1"/>
-      <c r="D833" s="1"/>
-      <c r="E833" s="1"/>
-      <c r="F833" s="1"/>
-      <c r="G833" s="1"/>
-      <c r="H833" s="1"/>
-      <c r="I833" s="1"/>
-      <c r="J833" s="1"/>
-      <c r="K833" s="1"/>
-      <c r="L833" s="1"/>
-      <c r="M833" s="1"/>
-      <c r="N833" s="1"/>
-      <c r="O833" s="1"/>
-      <c r="P833" s="1"/>
-      <c r="Q833" s="1"/>
-      <c r="R833" s="1"/>
-      <c r="S833" s="1"/>
-      <c r="T833" s="1"/>
-      <c r="U833" s="1"/>
-      <c r="V833" s="1"/>
-      <c r="W833" s="1"/>
-      <c r="X833" s="1"/>
-      <c r="Y833" s="1"/>
-      <c r="Z833" s="1"/>
-      <c r="AA833" s="1"/>
-      <c r="AB833" s="1"/>
-      <c r="AC833" s="1"/>
-      <c r="AD833" s="5"/>
-      <c r="AE833" s="5"/>
-      <c r="AF833" s="5"/>
-      <c r="AG833" s="1"/>
-      <c r="AH833" s="1"/>
-      <c r="AI833" s="5"/>
-      <c r="AJ833" s="5"/>
-      <c r="AK833" s="5"/>
-      <c r="AL833" s="5"/>
-    </row>
-    <row r="834" spans="1:38">
-      <c r="A834" s="2"/>
-      <c r="B834" s="1"/>
-      <c r="C834" s="1"/>
-      <c r="D834" s="1"/>
-      <c r="E834" s="1"/>
-      <c r="F834" s="1"/>
-      <c r="G834" s="1"/>
-      <c r="H834" s="1"/>
-      <c r="I834" s="1"/>
-      <c r="J834" s="1"/>
-      <c r="K834" s="1"/>
-      <c r="L834" s="1"/>
-      <c r="M834" s="1"/>
-      <c r="N834" s="1"/>
-      <c r="O834" s="1"/>
-      <c r="P834" s="1"/>
-      <c r="Q834" s="1"/>
-      <c r="R834" s="1"/>
-      <c r="S834" s="1"/>
-      <c r="T834" s="1"/>
-      <c r="U834" s="1"/>
-      <c r="V834" s="1"/>
-      <c r="W834" s="1"/>
-      <c r="X834" s="1"/>
-      <c r="Y834" s="1"/>
-      <c r="Z834" s="1"/>
-      <c r="AA834" s="1"/>
-      <c r="AB834" s="1"/>
-      <c r="AC834" s="1"/>
-      <c r="AD834" s="5"/>
-      <c r="AE834" s="5"/>
-      <c r="AF834" s="5"/>
-      <c r="AG834" s="1"/>
-      <c r="AH834" s="1"/>
-      <c r="AI834" s="5"/>
-      <c r="AJ834" s="5"/>
-      <c r="AK834" s="5"/>
-      <c r="AL834" s="5"/>
-    </row>
-    <row r="835" spans="1:38">
-      <c r="A835" s="2"/>
-      <c r="B835" s="1"/>
-      <c r="C835" s="1"/>
-      <c r="D835" s="1"/>
-      <c r="E835" s="1"/>
-      <c r="F835" s="1"/>
-      <c r="G835" s="1"/>
-      <c r="H835" s="1"/>
-      <c r="I835" s="1"/>
-      <c r="J835" s="1"/>
-      <c r="K835" s="1"/>
-      <c r="L835" s="1"/>
-      <c r="M835" s="1"/>
-      <c r="N835" s="1"/>
-      <c r="O835" s="1"/>
-      <c r="P835" s="1"/>
-      <c r="Q835" s="1"/>
-      <c r="R835" s="1"/>
-      <c r="S835" s="1"/>
-      <c r="T835" s="1"/>
-      <c r="U835" s="1"/>
-      <c r="V835" s="1"/>
-      <c r="W835" s="1"/>
-      <c r="X835" s="1"/>
-      <c r="Y835" s="1"/>
-      <c r="Z835" s="1"/>
-      <c r="AA835" s="1"/>
-      <c r="AB835" s="1"/>
-      <c r="AC835" s="1"/>
-      <c r="AD835" s="5"/>
-      <c r="AE835" s="5"/>
-      <c r="AF835" s="5"/>
-      <c r="AG835" s="1"/>
-      <c r="AH835" s="1"/>
-      <c r="AI835" s="5"/>
-      <c r="AJ835" s="5"/>
-      <c r="AK835" s="5"/>
-      <c r="AL835" s="5"/>
-    </row>
-    <row r="836" spans="1:38">
-      <c r="A836" s="2"/>
-      <c r="B836" s="1"/>
-      <c r="C836" s="1"/>
-      <c r="D836" s="1"/>
-      <c r="E836" s="1"/>
-      <c r="F836" s="1"/>
-      <c r="G836" s="1"/>
-      <c r="H836" s="1"/>
-      <c r="I836" s="1"/>
-      <c r="J836" s="1"/>
-      <c r="K836" s="1"/>
-      <c r="L836" s="1"/>
-      <c r="M836" s="1"/>
-      <c r="N836" s="1"/>
-      <c r="O836" s="1"/>
-      <c r="P836" s="1"/>
-      <c r="Q836" s="1"/>
-      <c r="R836" s="1"/>
-      <c r="S836" s="1"/>
-      <c r="T836" s="1"/>
-      <c r="U836" s="1"/>
-      <c r="V836" s="1"/>
-      <c r="W836" s="1"/>
-      <c r="X836" s="1"/>
-      <c r="Y836" s="1"/>
-      <c r="Z836" s="1"/>
-      <c r="AA836" s="1"/>
-      <c r="AB836" s="1"/>
-      <c r="AC836" s="1"/>
-      <c r="AD836" s="5"/>
-      <c r="AE836" s="5"/>
-      <c r="AF836" s="5"/>
-      <c r="AG836" s="1"/>
-      <c r="AH836" s="1"/>
-      <c r="AI836" s="5"/>
-      <c r="AJ836" s="5"/>
-      <c r="AK836" s="5"/>
-      <c r="AL836" s="5"/>
-    </row>
-    <row r="837" spans="1:38">
-      <c r="A837" s="2"/>
-      <c r="B837" s="1"/>
-      <c r="C837" s="1"/>
-      <c r="D837" s="1"/>
-      <c r="E837" s="1"/>
-      <c r="F837" s="1"/>
-      <c r="G837" s="1"/>
-      <c r="H837" s="1"/>
-      <c r="I837" s="1"/>
-      <c r="J837" s="1"/>
-      <c r="K837" s="1"/>
-      <c r="L837" s="1"/>
-      <c r="M837" s="1"/>
-      <c r="N837" s="1"/>
-      <c r="O837" s="1"/>
-      <c r="P837" s="1"/>
-      <c r="Q837" s="1"/>
-      <c r="R837" s="1"/>
-      <c r="S837" s="1"/>
-      <c r="T837" s="1"/>
-      <c r="U837" s="1"/>
-      <c r="V837" s="1"/>
-      <c r="W837" s="1"/>
-      <c r="X837" s="1"/>
-      <c r="Y837" s="1"/>
-      <c r="Z837" s="1"/>
-      <c r="AA837" s="1"/>
-      <c r="AB837" s="1"/>
-      <c r="AC837" s="1"/>
-      <c r="AD837" s="5"/>
-      <c r="AE837" s="5"/>
-      <c r="AF837" s="5"/>
-      <c r="AG837" s="1"/>
-      <c r="AH837" s="1"/>
-      <c r="AI837" s="5"/>
-      <c r="AJ837" s="5"/>
-      <c r="AK837" s="5"/>
-      <c r="AL837" s="5"/>
-    </row>
-    <row r="838" spans="1:38">
-      <c r="A838" s="2"/>
-      <c r="B838" s="1"/>
-      <c r="C838" s="1"/>
-      <c r="D838" s="1"/>
-      <c r="E838" s="1"/>
-      <c r="F838" s="1"/>
-      <c r="G838" s="1"/>
-      <c r="H838" s="1"/>
-      <c r="I838" s="1"/>
-      <c r="J838" s="1"/>
-      <c r="K838" s="1"/>
-      <c r="L838" s="1"/>
-      <c r="M838" s="1"/>
-      <c r="N838" s="1"/>
-      <c r="O838" s="1"/>
-      <c r="P838" s="1"/>
-      <c r="Q838" s="1"/>
-      <c r="R838" s="1"/>
-      <c r="S838" s="1"/>
-      <c r="T838" s="1"/>
-      <c r="U838" s="1"/>
-      <c r="V838" s="1"/>
-      <c r="W838" s="1"/>
-      <c r="X838" s="1"/>
-      <c r="Y838" s="1"/>
-      <c r="Z838" s="1"/>
-      <c r="AA838" s="1"/>
-      <c r="AB838" s="1"/>
-      <c r="AC838" s="1"/>
-      <c r="AD838" s="5"/>
-      <c r="AE838" s="5"/>
-      <c r="AF838" s="5"/>
-      <c r="AG838" s="1"/>
-      <c r="AH838" s="1"/>
-      <c r="AI838" s="5"/>
-      <c r="AJ838" s="5"/>
-      <c r="AK838" s="5"/>
-      <c r="AL838" s="5"/>
-    </row>
-    <row r="839" spans="1:38">
-      <c r="A839" s="2"/>
-      <c r="B839" s="1"/>
-      <c r="C839" s="1"/>
-      <c r="D839" s="1"/>
-      <c r="E839" s="1"/>
-      <c r="F839" s="1"/>
-      <c r="G839" s="1"/>
-      <c r="H839" s="1"/>
-      <c r="I839" s="1"/>
-      <c r="J839" s="1"/>
-      <c r="K839" s="1"/>
-      <c r="L839" s="1"/>
-      <c r="M839" s="1"/>
-      <c r="N839" s="1"/>
-      <c r="O839" s="1"/>
-      <c r="P839" s="1"/>
-      <c r="Q839" s="1"/>
-      <c r="R839" s="1"/>
-      <c r="S839" s="1"/>
-      <c r="T839" s="1"/>
-      <c r="U839" s="1"/>
-      <c r="V839" s="1"/>
-      <c r="W839" s="1"/>
-      <c r="X839" s="1"/>
-      <c r="Y839" s="1"/>
-      <c r="Z839" s="1"/>
-      <c r="AA839" s="1"/>
-      <c r="AB839" s="1"/>
-      <c r="AC839" s="1"/>
-      <c r="AD839" s="5"/>
-      <c r="AE839" s="5"/>
-      <c r="AF839" s="5"/>
-      <c r="AG839" s="1"/>
-      <c r="AH839" s="1"/>
-      <c r="AI839" s="5"/>
-      <c r="AJ839" s="5"/>
-      <c r="AK839" s="5"/>
-      <c r="AL839" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/data/prueba_predicc_dia_dia.xlsx
+++ b/main/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22083187-970E-4121-89F7-2E9BF0577979}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63476A73-6515-4B8B-9932-D2D9D0A309DF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6315" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="188">
   <si>
     <t>Code</t>
   </si>
@@ -498,6 +498,117 @@
   </si>
   <si>
     <t>a restar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel 🇮🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine 🇺🇦 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands 🇳🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece 🇬🇷 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy 🇮🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland 🇨🇭 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia 🇦🇲 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania 🇱🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium 🇧🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia 🇭🇷 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">France 🇫🇷 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom 🇬🇧 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria 🇦🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland 🇮🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain 🇪🇸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway 🇳🇴 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden 🇸🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia 🇬🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland 🇫🇮 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark 🇩🇰 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland 🇵🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan 🇦🇿 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia 🇸🇮 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus 🇨🇾 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia 🇷🇸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia 🇪🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany 🇩🇪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia 🇱🇻 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia 🇦🇺 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova 🇲🇩 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal 🇵🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia 🇨🇿 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania 🇦🇱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxemburgo 🇱🇺 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta 🇲🇹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland 🇮🇸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Marino 🇸🇲 </t>
   </si>
 </sst>
 </file>
@@ -2038,7 +2149,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45390.774462499998" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45390.778861574072" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -3124,122 +3235,122 @@
   <dimension ref="A1:AL796"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="B1" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA1" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD1" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF1" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG1" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH1" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI1" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ1" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK1" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL1" s="48" t="s">
-        <v>81</v>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:38">

--- a/main/data/prueba_predicc_dia_dia.xlsx
+++ b/main/data/prueba_predicc_dia_dia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C27FEA49-27D9-43B7-824E-F97078E4AC55}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4CD9619-BC05-4E36-9331-B7F78FF8894A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1051,6 +1051,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1060,9 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2152,7 +2152,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45391.690815162037" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45392.728075231484" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -3235,10 +3235,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3476,115 +3476,231 @@
       <c r="A3" s="2">
         <v>45390</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="61">
         <v>516</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="61">
         <v>466</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="61">
         <v>455</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="61">
         <v>366</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="61">
         <v>317</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="61">
         <v>256</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H3" s="61">
         <v>251</v>
       </c>
-      <c r="I3" s="66">
+      <c r="I3" s="61">
         <v>232</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="61">
         <v>229</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="61">
         <v>144</v>
       </c>
-      <c r="L3" s="66">
+      <c r="L3" s="61">
         <v>130</v>
       </c>
-      <c r="M3" s="66">
+      <c r="M3" s="61">
         <v>129</v>
       </c>
-      <c r="N3" s="66">
+      <c r="N3" s="61">
         <v>126</v>
       </c>
-      <c r="O3" s="66">
+      <c r="O3" s="61">
         <v>123</v>
       </c>
-      <c r="P3" s="66">
+      <c r="P3" s="61">
         <v>117</v>
       </c>
-      <c r="Q3" s="66">
+      <c r="Q3" s="61">
         <v>114</v>
       </c>
-      <c r="R3" s="66">
+      <c r="R3" s="61">
         <v>68</v>
       </c>
-      <c r="S3" s="66">
+      <c r="S3" s="61">
         <v>49</v>
       </c>
-      <c r="T3" s="66">
+      <c r="T3" s="61">
         <v>42</v>
       </c>
-      <c r="U3" s="66">
+      <c r="U3" s="61">
         <v>38</v>
       </c>
-      <c r="V3" s="66">
+      <c r="V3" s="61">
         <v>36</v>
       </c>
-      <c r="W3" s="66">
+      <c r="W3" s="61">
         <v>33</v>
       </c>
-      <c r="X3" s="66">
+      <c r="X3" s="61">
         <v>29</v>
       </c>
-      <c r="Y3" s="66">
+      <c r="Y3" s="61">
         <v>19</v>
       </c>
-      <c r="Z3" s="66">
+      <c r="Z3" s="61">
         <v>7</v>
       </c>
-      <c r="AA3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="66">
+      <c r="AA3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="61">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A4" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B4" s="61">
+        <v>487</v>
+      </c>
+      <c r="C4" s="61">
+        <v>448</v>
+      </c>
+      <c r="D4" s="61">
+        <v>354</v>
+      </c>
+      <c r="E4" s="61">
+        <v>315</v>
+      </c>
+      <c r="F4" s="61">
+        <v>299</v>
+      </c>
+      <c r="G4" s="61">
+        <v>297</v>
+      </c>
+      <c r="H4" s="61">
+        <v>230</v>
+      </c>
+      <c r="I4" s="61">
+        <v>223</v>
+      </c>
+      <c r="J4" s="61">
+        <v>203</v>
+      </c>
+      <c r="K4" s="61">
+        <v>223</v>
+      </c>
+      <c r="L4" s="61">
+        <v>202</v>
+      </c>
+      <c r="M4" s="61">
+        <v>126</v>
+      </c>
+      <c r="N4" s="61">
+        <v>111</v>
+      </c>
+      <c r="O4" s="61">
+        <v>106</v>
+      </c>
+      <c r="P4" s="61">
+        <v>106</v>
+      </c>
+      <c r="Q4" s="61">
+        <v>103</v>
+      </c>
+      <c r="R4" s="61">
+        <v>98</v>
+      </c>
+      <c r="S4" s="61">
+        <v>93</v>
+      </c>
+      <c r="T4" s="61">
+        <v>80</v>
+      </c>
+      <c r="U4" s="61">
+        <v>45</v>
+      </c>
+      <c r="V4" s="61">
+        <v>42</v>
+      </c>
+      <c r="W4" s="61">
+        <v>35</v>
+      </c>
+      <c r="X4" s="61">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="61">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="61">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="61">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="61">
         <v>0</v>
       </c>
     </row>
@@ -3614,15 +3730,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="13.8">
-      <c r="A1" s="61">
+      <c r="A1" s="62">
         <v>45056.999305555553</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7" t="s">
         <v>0</v>
@@ -4938,15 +5054,15 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="13.8">
-      <c r="A43" s="63">
+      <c r="A43" s="64">
         <v>45057.5</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
       <c r="I43" s="6">
         <v>43</v>
       </c>
@@ -5896,15 +6012,15 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="13.2">
-      <c r="A85" s="63">
+      <c r="A85" s="64">
         <v>45057.999305555553</v>
       </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="65"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="66"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="20" t="s">
@@ -6818,15 +6934,15 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.2">
-      <c r="A127" s="63">
+      <c r="A127" s="64">
         <v>45058.5</v>
       </c>
-      <c r="B127" s="64"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="64"/>
-      <c r="F127" s="64"/>
-      <c r="G127" s="65"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="66"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1">
       <c r="A128" s="26" t="s">

--- a/main/data/prueba_predicc_dia_dia.xlsx
+++ b/main/data/prueba_predicc_dia_dia.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/Desktop/adri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4CD9619-BC05-4E36-9331-B7F78FF8894A}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="11_2CC6A14E139D48DF8493D515C2140916903ED78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AA8441A-D0EE-4C24-9CEF-68872E9CFCD8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja 4" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId3"/>
-    <sheet name="Copia de Hoja 1" sheetId="3" r:id="rId4"/>
-    <sheet name="Hoja 3" sheetId="4" r:id="rId5"/>
-    <sheet name="Tabla dinámica 1" sheetId="5" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId2"/>
+    <sheet name="Hoja 4" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId4"/>
+    <sheet name="Copia de Hoja 1" sheetId="3" r:id="rId5"/>
+    <sheet name="Hoja 3" sheetId="4" r:id="rId6"/>
+    <sheet name="Tabla dinámica 1" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Hoja 3'!$A$1:$F$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hoja 4'!$A$128:$J$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Hoja 3'!$A$1:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Hoja 4'!$A$128:$J$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId7"/>
+    <pivotCache cacheId="15" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="263">
   <si>
     <t>Code</t>
   </si>
@@ -609,6 +610,231 @@
   </si>
   <si>
     <t xml:space="preserve">San Marino 🇸🇲 </t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>singer</t>
+  </si>
+  <si>
+    <t>Europapa</t>
+  </si>
+  <si>
+    <t>Joost Klein</t>
+  </si>
+  <si>
+    <t>Hurricane</t>
+  </si>
+  <si>
+    <t>Eden Golan</t>
+  </si>
+  <si>
+    <t>Teresa &amp; Maria</t>
+  </si>
+  <si>
+    <t>Alyona Alyona &amp; Jerry Heil</t>
+  </si>
+  <si>
+    <t>Zari» («ζάρι»)</t>
+  </si>
+  <si>
+    <t>Marina Satti</t>
+  </si>
+  <si>
+    <t>La noia</t>
+  </si>
+  <si>
+    <t>Angelina Mango</t>
+  </si>
+  <si>
+    <t>The Code</t>
+  </si>
+  <si>
+    <t>Nemo</t>
+  </si>
+  <si>
+    <t>Jako</t>
+  </si>
+  <si>
+    <t>Ladaniva</t>
+  </si>
+  <si>
+    <t>Before The Party is Over</t>
+  </si>
+  <si>
+    <t>Mustii</t>
+  </si>
+  <si>
+    <t>Rim Tim Tagi Dim</t>
+  </si>
+  <si>
+    <t>Baby Lasagna</t>
+  </si>
+  <si>
+    <t>Luktelk</t>
+  </si>
+  <si>
+    <t>Silvester Belt</t>
+  </si>
+  <si>
+    <t>Mon Amour</t>
+  </si>
+  <si>
+    <t>Slimane</t>
+  </si>
+  <si>
+    <t>Dizzy</t>
+  </si>
+  <si>
+    <t>Olly Alexander</t>
+  </si>
+  <si>
+    <t>We Will Rave</t>
+  </si>
+  <si>
+    <t>Kaleen</t>
+  </si>
+  <si>
+    <t>Doomsday Blue</t>
+  </si>
+  <si>
+    <t>Bambie Thug</t>
+  </si>
+  <si>
+    <t>Zorra</t>
+  </si>
+  <si>
+    <t>Nebulossa</t>
+  </si>
+  <si>
+    <t>Ulveham</t>
+  </si>
+  <si>
+    <t>Gåte</t>
+  </si>
+  <si>
+    <t>Unforgettable</t>
+  </si>
+  <si>
+    <t>Marcus &amp; Martinus</t>
+  </si>
+  <si>
+    <t>Firefighter</t>
+  </si>
+  <si>
+    <t>Nutsa Buzaladze</t>
+  </si>
+  <si>
+    <t>No Rules!</t>
+  </si>
+  <si>
+    <t>Windows95man</t>
+  </si>
+  <si>
+    <t>Liar</t>
+  </si>
+  <si>
+    <t>Sília Kapsís</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Saba</t>
+  </si>
+  <si>
+    <t>The Tower</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Özünlə Apar</t>
+  </si>
+  <si>
+    <t>FAHREE feat. Ilkin Dovlatov</t>
+  </si>
+  <si>
+    <t>Veronika</t>
+  </si>
+  <si>
+    <t>Raiven</t>
+  </si>
+  <si>
+    <t>Ramonda</t>
+  </si>
+  <si>
+    <t>Teya Dora</t>
+  </si>
+  <si>
+    <t>Pedestal</t>
+  </si>
+  <si>
+    <t>Aiko</t>
+  </si>
+  <si>
+    <t>Scared of Heights</t>
+  </si>
+  <si>
+    <t>Hera Björk</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <t>Tali</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Besa Kokëdhima</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Sarah Bonnici</t>
+  </si>
+  <si>
+    <t>One Milkali (One Blood)</t>
+  </si>
+  <si>
+    <t>Electric Fields</t>
+  </si>
+  <si>
+    <t>Grito</t>
+  </si>
+  <si>
+    <t>Iolanda</t>
+  </si>
+  <si>
+    <t>In The Middle</t>
+  </si>
+  <si>
+    <t>Natalia Barbu</t>
+  </si>
+  <si>
+    <t>Hollow</t>
+  </si>
+  <si>
+    <t>Dons</t>
+  </si>
+  <si>
+    <t>Always on the Run</t>
+  </si>
+  <si>
+    <t>Isaak</t>
+  </si>
+  <si>
+    <t>(Nendest) narkootikumidest ei tea me (küll) midagi</t>
+  </si>
+  <si>
+    <t>5miinust &amp; Puuluup</t>
+  </si>
+  <si>
+    <t>Megara</t>
   </si>
 </sst>
 </file>
@@ -919,7 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1063,6 +1289,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2152,7 +2385,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45392.728075231484" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Adrian Castells Ciges" refreshedDate="45394.699878009262" refreshedVersion="8" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:L37" sheet="Hoja 3"/>
   </cacheSource>
@@ -2604,7 +2837,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica 1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="code" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -3235,15 +3468,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" ht="13.2">
       <c r="B1" t="s">
         <v>151</v>
       </c>
@@ -3356,7 +3589,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" ht="13.2">
       <c r="A2" s="2">
         <v>45389</v>
       </c>
@@ -3472,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" ht="13.2">
       <c r="A3" s="2">
         <v>45390</v>
       </c>
@@ -3701,6 +3934,238 @@
         <v>0</v>
       </c>
       <c r="AL4" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A5" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B5">
+        <v>474</v>
+      </c>
+      <c r="C5">
+        <v>442</v>
+      </c>
+      <c r="D5">
+        <v>349</v>
+      </c>
+      <c r="E5">
+        <v>311</v>
+      </c>
+      <c r="F5">
+        <v>316</v>
+      </c>
+      <c r="G5">
+        <v>302</v>
+      </c>
+      <c r="H5">
+        <v>246</v>
+      </c>
+      <c r="I5">
+        <v>222</v>
+      </c>
+      <c r="J5">
+        <v>201</v>
+      </c>
+      <c r="K5">
+        <v>231</v>
+      </c>
+      <c r="L5">
+        <v>219</v>
+      </c>
+      <c r="M5">
+        <v>125</v>
+      </c>
+      <c r="N5">
+        <v>111</v>
+      </c>
+      <c r="O5">
+        <v>116</v>
+      </c>
+      <c r="P5">
+        <v>103</v>
+      </c>
+      <c r="Q5">
+        <v>103</v>
+      </c>
+      <c r="R5">
+        <v>80</v>
+      </c>
+      <c r="S5">
+        <v>82</v>
+      </c>
+      <c r="T5">
+        <v>72</v>
+      </c>
+      <c r="U5">
+        <v>46</v>
+      </c>
+      <c r="V5">
+        <v>42</v>
+      </c>
+      <c r="W5">
+        <v>29</v>
+      </c>
+      <c r="X5">
+        <v>30</v>
+      </c>
+      <c r="Y5">
+        <v>39</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="61">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B6">
+        <v>459</v>
+      </c>
+      <c r="C6">
+        <v>403</v>
+      </c>
+      <c r="D6">
+        <v>530</v>
+      </c>
+      <c r="E6">
+        <v>294</v>
+      </c>
+      <c r="F6">
+        <v>281</v>
+      </c>
+      <c r="G6">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>228</v>
+      </c>
+      <c r="I6">
+        <v>201</v>
+      </c>
+      <c r="J6">
+        <v>206</v>
+      </c>
+      <c r="K6">
+        <v>203</v>
+      </c>
+      <c r="L6">
+        <v>186</v>
+      </c>
+      <c r="M6">
+        <v>128</v>
+      </c>
+      <c r="N6">
+        <v>117</v>
+      </c>
+      <c r="O6">
+        <v>113</v>
+      </c>
+      <c r="P6">
+        <v>113</v>
+      </c>
+      <c r="Q6">
+        <v>110</v>
+      </c>
+      <c r="R6">
+        <v>106</v>
+      </c>
+      <c r="S6">
+        <v>104</v>
+      </c>
+      <c r="T6">
+        <v>62</v>
+      </c>
+      <c r="U6">
+        <v>35</v>
+      </c>
+      <c r="V6">
+        <v>32</v>
+      </c>
+      <c r="W6">
+        <v>27</v>
+      </c>
+      <c r="X6">
+        <v>22</v>
+      </c>
+      <c r="Y6">
+        <v>45</v>
+      </c>
+      <c r="Z6">
+        <v>7</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
         <v>0</v>
       </c>
     </row>
@@ -3710,6 +4175,1146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6301985-910C-46A2-BCA7-5B73125291C9}">
+  <dimension ref="A1:K38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="13.8">
+      <c r="A1" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:11" ht="27.6">
+      <c r="A2" s="68">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="51">
+        <v>530</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2">
+        <f>VLOOKUP(G2,D:E,2,0)</f>
+        <v>459</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.8">
+      <c r="A3" s="68">
+        <v>2</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="53">
+        <v>459</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H38" si="0">VLOOKUP(G3,D:E,2,0)</f>
+        <v>403</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="41.4">
+      <c r="A4" s="68">
+        <v>3</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="55">
+        <v>403</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>530</v>
+      </c>
+      <c r="J4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13.8">
+      <c r="A5" s="68">
+        <v>4</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="57">
+        <v>294</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.6">
+      <c r="A6" s="68">
+        <v>5</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="57">
+        <v>281</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.6">
+      <c r="A7" s="68">
+        <v>6</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="57">
+        <v>280</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.8">
+      <c r="A8" s="68">
+        <v>7</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="57">
+        <v>228</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.6">
+      <c r="A9" s="68">
+        <v>8</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="57">
+        <v>206</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27.6">
+      <c r="A10" s="68">
+        <v>9</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="57">
+        <v>203</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.8">
+      <c r="A11" s="68">
+        <v>10</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="57">
+        <v>201</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.8">
+      <c r="A12" s="68">
+        <v>11</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="49">
+        <v>186</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27.6">
+      <c r="A13" s="68">
+        <v>12</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="49">
+        <v>128</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.8">
+      <c r="A14" s="68">
+        <v>13</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="49">
+        <v>117</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27.6">
+      <c r="A15" s="68">
+        <v>14</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="49">
+        <v>113</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.8">
+      <c r="A16" s="68">
+        <v>15</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="49">
+        <v>113</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13.8">
+      <c r="A17" s="68">
+        <v>16</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="49">
+        <v>110</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="J17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="27.6">
+      <c r="A18" s="68">
+        <v>17</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="49">
+        <v>106</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="27.6">
+      <c r="A19" s="68">
+        <v>18</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="49">
+        <v>104</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="27.6">
+      <c r="A20" s="68">
+        <v>19</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="49">
+        <v>62</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13.8">
+      <c r="A21" s="68">
+        <v>20</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="49">
+        <v>45</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13.8">
+      <c r="A22" s="68">
+        <v>21</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="49">
+        <v>35</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13.8">
+      <c r="A23" s="68">
+        <v>22</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="49">
+        <v>32</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="27.6">
+      <c r="A24" s="68">
+        <v>23</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="49">
+        <v>27</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="13.8">
+      <c r="A25" s="68">
+        <v>24</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="49">
+        <v>22</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.8">
+      <c r="A26" s="68">
+        <v>25</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="49">
+        <v>7</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13.8">
+      <c r="A27" s="68">
+        <v>26</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="49">
+        <v>0</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="27.6">
+      <c r="A28" s="68">
+        <v>27</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="49">
+        <v>0</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="27.6">
+      <c r="A29" s="68">
+        <v>28</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="49">
+        <v>0</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="27.6">
+      <c r="A30" s="68">
+        <v>29</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="49">
+        <v>0</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="27.6">
+      <c r="A31" s="68">
+        <v>30</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="49">
+        <v>0</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="27.6">
+      <c r="A32" s="68">
+        <v>31</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="49">
+        <v>0</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="13.8">
+      <c r="A33" s="68">
+        <v>32</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="49">
+        <v>0</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="27.6">
+      <c r="A34" s="68">
+        <v>33</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="49">
+        <v>0</v>
+      </c>
+      <c r="G34" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="13.8">
+      <c r="A35" s="68">
+        <v>34</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="49">
+        <v>0</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>149</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="27.6">
+      <c r="A36" s="68">
+        <v>35</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="49">
+        <v>0</v>
+      </c>
+      <c r="G36" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="69">
+      <c r="A37" s="68">
+        <v>36</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="49">
+        <v>0</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="27.6">
+      <c r="A38" s="68">
+        <v>37</v>
+      </c>
+      <c r="B38" s="69">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="49">
+        <v>0</v>
+      </c>
+      <c r="G38" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8324,7 +9929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D10933F-46F7-4042-BCD5-55B0B9B43EC9}">
   <dimension ref="A1:AX40"/>
   <sheetViews>
@@ -9850,7 +11455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -16426,7 +18031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -23855,7 +25460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
